--- a/pythonProject/ddtTest/login.xlsx
+++ b/pythonProject/ddtTest/login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_workbench\pythonProject\ddtTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17946FA-F7D8-42FD-83F4-5448F56A679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268AF8E5-D2E9-47A3-AFDC-382CE7543932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1296" windowWidth="21156" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6156" windowWidth="23040" windowHeight="6204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,15 +39,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MiI23456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expect_txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的账户</t>
+    <t>Mi123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mi1234565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -413,18 +421,30 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{30203E95-3615-4A50-8E44-B472939D29B3}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{DADCC74B-D39E-44E1-B188-2F1517079169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>